--- a/outputs-HGR-r202/test-g__Enterococcus_D_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_D_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -29,6 +29,30 @@
   </si>
   <si>
     <t>even_MAG-GUT1297.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3484.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3493.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3499.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3508.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3553.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43457.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT67625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT945.fa</t>
   </si>
   <si>
     <t>1-s__Enterococcus_D gallinarum</t>
@@ -85,10 +109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="29.42578125" customWidth="true"/>
     <col min="3" max="3" width="31" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
@@ -99,13 +123,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -164,6 +188,118 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.31949569403742328</v>
+      </c>
+      <c r="C6">
+        <v>0.68050430596257672</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.29783881804844414</v>
+      </c>
+      <c r="C7">
+        <v>0.70216118195155586</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.328362143922872</v>
+      </c>
+      <c r="C8">
+        <v>0.671637856077128</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.33893459292088979</v>
+      </c>
+      <c r="C9">
+        <v>0.66106540707911021</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.30689319381212588</v>
+      </c>
+      <c r="C10">
+        <v>0.69310680618787412</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.30366936505171926</v>
+      </c>
+      <c r="C11">
+        <v>0.69633063494828074</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.33369056635090955</v>
+      </c>
+      <c r="C12">
+        <v>0.66630943364909045</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.31156643416815255</v>
+      </c>
+      <c r="C13">
+        <v>0.68843356583184745</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Enterococcus_D_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Enterococcus_D_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,14 +92,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,28 +116,28 @@
   <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="true"/>
+    <col min="1" max="1" width="21.42578125" customWidth="true"/>
     <col min="2" max="2" width="29.42578125" customWidth="true"/>
     <col min="3" max="3" width="31" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -147,7 +151,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -161,7 +165,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -175,7 +179,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -189,7 +193,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -203,7 +207,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -217,42 +221,42 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.328362143922872</v>
+        <v>0.33893459292088979</v>
       </c>
       <c r="C8">
-        <v>0.671637856077128</v>
+        <v>0.66106540707911021</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.33893459292088979</v>
+        <v>0.30689319381212588</v>
       </c>
       <c r="C9">
-        <v>0.66106540707911021</v>
+        <v>0.69310680618787412</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.30689319381212588</v>
+        <v>0.33369056635090955</v>
       </c>
       <c r="C10">
-        <v>0.69310680618787412</v>
+        <v>0.66630943364909045</v>
       </c>
       <c r="D10">
         <v>2</v>
